--- a/projects.xlsx
+++ b/projects.xlsx
@@ -1,20 +1,259 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evyatara\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>אביתר אביב</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>אביתר אביב:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+חשבון סופי</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>אביתר אביב:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+חשבון סופי</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>אביתר אביב:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+חשבון סופי</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>אביתר אביב:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+לבדוק את פנקס שוב</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>הנהלה וכלליות גולדין</t>
+  </si>
+  <si>
+    <t>איינשטיין</t>
+  </si>
+  <si>
+    <t>חדרה ג'</t>
+  </si>
+  <si>
+    <t>היי טאוור</t>
+  </si>
+  <si>
+    <t>בראשית</t>
+  </si>
+  <si>
+    <t>ציר החינוך מגרש 1002</t>
+  </si>
+  <si>
+    <t>ציר החינוך מגרש 1007</t>
+  </si>
+  <si>
+    <t>הפיל/ מגדלי צהלה</t>
+  </si>
+  <si>
+    <t>בארט</t>
+  </si>
+  <si>
+    <t>סמאטס</t>
+  </si>
+  <si>
+    <t>אינפיניטי</t>
+  </si>
+  <si>
+    <t>קרית אונו</t>
+  </si>
+  <si>
+    <t>בת ים</t>
+  </si>
+  <si>
+    <t>מונטיפיורי</t>
+  </si>
+  <si>
+    <t>אמוראים סבוראים</t>
+  </si>
+  <si>
+    <t>ציר חינוך מגרש 1010</t>
+  </si>
+  <si>
+    <t>פנקס</t>
+  </si>
+  <si>
+    <t>גבעת שמואל</t>
+  </si>
+  <si>
+    <t>טייסים</t>
+  </si>
+  <si>
+    <t>אבן שפרוט</t>
+  </si>
+  <si>
+    <t>מגרש 47 בת ים</t>
+  </si>
+  <si>
+    <t>איינשטין 15</t>
+  </si>
+  <si>
+    <t>שפיר ג'נרי</t>
+  </si>
+  <si>
+    <t>שפיר בת ים</t>
+  </si>
+  <si>
+    <t>תנאים</t>
+  </si>
+  <si>
+    <t>בארי נתניה</t>
+  </si>
+  <si>
+    <t>פרויקט פאדובה</t>
+  </si>
+  <si>
+    <t>הקו הסגול-גולדין</t>
+  </si>
+  <si>
+    <t>DOU תל אביב</t>
+  </si>
+  <si>
+    <t>דיפו הטייסים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לאון </t>
+  </si>
+  <si>
+    <t>אהרון בבייב</t>
+  </si>
+  <si>
+    <t>איגור</t>
+  </si>
+  <si>
+    <t>לא קיים</t>
+  </si>
+  <si>
+    <t>עבד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מיכאל </t>
+  </si>
+  <si>
+    <t>אמיר</t>
+  </si>
+  <si>
+    <t>נטור/איגור</t>
+  </si>
+  <si>
+    <t>ירדן</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ירדן </t>
+  </si>
   <si>
     <t>manager</t>
   </si>
@@ -23,56 +262,81 @@
   </si>
   <si>
     <t>project name</t>
-  </si>
-  <si>
-    <t>ירדן</t>
-  </si>
-  <si>
-    <t>איגור</t>
-  </si>
-  <si>
-    <t>נטור</t>
-  </si>
-  <si>
-    <t>טייסים</t>
-  </si>
-  <si>
-    <t>היי טאוור</t>
-  </si>
-  <si>
-    <t>אינפיניטי</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -81,40 +345,199 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -124,44 +547,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -188,14 +611,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -222,6 +646,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -233,222 +658,554 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="21" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B3" s="3">
+        <v>660</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B4" s="4">
+        <v>661</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
         <v>662</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>663</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>664</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B7" s="3">
+        <v>665</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>668</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B8" s="3">
+        <v>666</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="B9" s="4">
+        <v>667</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>669</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>670</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>671</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>672</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>673</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>674</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>675</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>676</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>677</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>678</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>679</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>681</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>682</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>683</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>684</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>685</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>686</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>687</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>688</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>689</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>690</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
+        <v>691</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>